--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationstatement-changed.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationstatement-changed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -282,7 +282,9 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medstat:If one dosage element is present, it should not have a sequence number. 
+              If more than one dosage element is present, the base entry has the sequence number 1. {(dosage.count() &gt; 1 implies dosage.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
+         and (dosage.count() = 1 implies dosage.single().sequence.exists().not())}split-dosage-unit-must-match-base-dosage:The unit for doseAndRate of different dosages (split dosage) belonging to the same statement/request/dispense must match. {(dosage.count() &gt; 1) implies dosage.doseAndRate.dose.ofType(Quantity).code.union(dosage.doseAndRate.dose.ofType(Range).low.code).union(dosage.doseAndRate.dose.ofType(Range).high.code).union(dosage.doseAndRate.rate.numerator.code).count() = 1}</t>
   </si>
   <si>
     <t>Event</t>
@@ -434,7 +436,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -604,6 +606,9 @@
     <t>Whether the dispenser can substitute the prescribed medicine/package by another that is deemed equivalent, for medical or logistical reasons. By default, substitution is authorized.</t>
   </si>
   <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -651,50 +656,47 @@
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
+    <t>Whether substitution is allowed or not</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-emed-epr/ValueSet/ch-emed-epr-substance-admin-substitution-code</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>MedicationStatement.extension:substitution.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>Whether substitution is allowed or not</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:substitution.value[x]:valueCodeableConcept.id</t>
+    <t>MedicationStatement.extension:substitution.value[x].id</t>
   </si>
   <si>
     <t>MedicationStatement.extension.value[x].id</t>
   </si>
   <si>
-    <t>MedicationStatement.extension:substitution.value[x]:valueCodeableConcept.extension</t>
+    <t>MedicationStatement.extension:substitution.value[x].extension</t>
   </si>
   <si>
     <t>MedicationStatement.extension.value[x].extension</t>
   </si>
   <si>
-    <t>MedicationStatement.extension:substitution.value[x]:valueCodeableConcept.coding</t>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:substitution.value[x].coding</t>
   </si>
   <si>
     <t>MedicationStatement.extension.value[x].coding</t>
@@ -712,6 +714,13 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/v3-substanceAdminSubstitution"/&gt;
+  &lt;code value="N"/&gt;
+  &lt;display value="none"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -721,7 +730,7 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>MedicationStatement.extension:substitution.value[x]:valueCodeableConcept.text</t>
+    <t>MedicationStatement.extension:substitution.value[x].text</t>
   </si>
   <si>
     <t>MedicationStatement.extension.value[x].text</t>
@@ -1034,7 +1043,7 @@
     <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)
 </t>
   </si>
   <si>
@@ -1045,6 +1054,13 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1234,7 +1250,7 @@
     <t>MedicationStatement.informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-practitionerrole|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-patient|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-related-person)
 </t>
   </si>
   <si>
@@ -1254,19 +1270,6 @@
   </si>
   <si>
     <t>MedicationStatement.informationSource.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>MedicationStatement.informationSource.reference</t>
@@ -1422,14 +1425,14 @@
     <t>MedicationStatement.dosage</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage
+    <t xml:space="preserve">Dosage {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-dosage}
 </t>
   </si>
   <si>
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is/was or should be taken by the patient.</t>
+    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
   </si>
   <si>
     <t>The dates included in the dosage on a Medication Statement reflect the dates for a given dose.  For example, "from November 1, 2016 to November 3, 2016, take one tablet daily and from November 4, 2016 to November 7, 2016, take two tablets daily."  It is expected that this specificity may only be populated where the patient brings in their labeled container or where the Medication Statement is derived from a MedicationRequest.</t>
@@ -1439,7 +1442,7 @@
 </t>
   </si>
   <si>
-    <t>refer dosageInstruction mapping</t>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
   </si>
   <si>
     <t>MedicationStatement.dosage:baseEntry</t>
@@ -1452,19 +1455,13 @@
 </t>
   </si>
   <si>
-    <t>CH EMED Dosage (MedicationStatement / MedicationDispense)</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Base entry of the dosage instruction</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}</t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
-  </si>
-  <si>
     <t>MedicationStatement.dosage:additionalEntry</t>
   </si>
   <si>
@@ -1475,7 +1472,7 @@
 </t>
   </si>
   <si>
-    <t>CH EMED Dosage Split (MedicationStatement / MedicationDispense / MedicationRequest)</t>
+    <t>Additional entry of the dosage instruction</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1779,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1791,45 +1788,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="77.96484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.97265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.40234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.62890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="149.59375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="218.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="221.62109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="119.71875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.62109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="124.08984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.25" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="136.39453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.81640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="140.73046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="45.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3804,7 +3801,7 @@
         <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3864,7 +3861,7 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>116</v>
@@ -3873,7 +3870,7 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3884,10 +3881,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3996,10 +3993,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4108,10 +4105,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4137,13 +4134,13 @@
         <v>125</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4151,7 +4148,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>78</v>
@@ -4193,7 +4190,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>89</v>
@@ -4222,10 +4219,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4248,13 +4245,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4281,29 +4278,29 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4332,20 +4329,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
@@ -4360,13 +4355,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4393,11 +4388,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4415,7 +4412,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4427,13 +4424,13 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4444,21 +4441,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4470,15 +4467,17 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4515,31 +4514,31 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -4556,10 +4555,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4579,19 +4578,23 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4600,7 +4603,7 @@
         <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>78</v>
@@ -4627,19 +4630,19 @@
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4651,27 +4654,27 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4679,10 +4682,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4694,19 +4697,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4755,13 +4758,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4773,21 +4776,21 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4798,32 +4801,30 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4871,39 +4872,39 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4911,31 +4912,31 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J28" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4985,7 +4986,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4997,16 +4998,16 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5014,10 +5015,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5025,7 +5026,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>89</v>
@@ -5037,20 +5038,18 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>104</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5099,28 +5098,28 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5128,10 +5127,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5142,7 +5141,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5154,13 +5153,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5199,37 +5198,37 @@
         <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5240,10 +5239,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5254,28 +5253,32 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5299,63 +5302,63 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>115</v>
+        <v>253</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5372,25 +5375,25 @@
         <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>246</v>
+        <v>110</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>247</v>
+        <v>111</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5415,13 +5418,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5439,7 +5442,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5457,21 +5460,21 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>176</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5479,7 +5482,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>89</v>
@@ -5494,32 +5497,32 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>110</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>111</v>
+        <v>264</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>78</v>
@@ -5531,13 +5534,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5555,7 +5558,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5573,21 +5576,21 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5610,32 +5613,30 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>78</v>
@@ -5671,7 +5672,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5689,21 +5690,21 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5711,7 +5712,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>89</v>
@@ -5726,17 +5727,15 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5749,7 +5748,7 @@
         <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>78</v>
@@ -5785,7 +5784,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5803,21 +5802,21 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5840,15 +5839,17 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>110</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5897,7 +5898,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5915,21 +5916,21 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5940,7 +5941,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5952,18 +5953,20 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6011,13 +6014,13 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
@@ -6026,24 +6029,24 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6051,10 +6054,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6066,19 +6069,17 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6127,7 +6128,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6142,10 +6143,10 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6156,10 +6157,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6176,24 +6177,24 @@
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6202,7 +6203,7 @@
         <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>78</v>
@@ -6217,13 +6218,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6241,13 +6242,13 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
@@ -6256,13 +6257,13 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6270,10 +6271,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6281,31 +6282,31 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>304</v>
+        <v>110</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>305</v>
+        <v>111</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6316,7 +6317,7 @@
         <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>78</v>
@@ -6331,13 +6332,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6355,13 +6356,13 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
@@ -6370,13 +6371,13 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6384,10 +6385,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6398,7 +6399,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6407,10 +6408,10 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>110</v>
@@ -6418,9 +6419,7 @@
       <c r="M41" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>314</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6445,13 +6444,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6469,13 +6468,13 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
@@ -6484,13 +6483,13 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6498,10 +6497,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6509,7 +6508,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>89</v>
@@ -6524,15 +6523,17 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>199</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>110</v>
+        <v>327</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6557,34 +6558,32 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>89</v>
@@ -6596,13 +6595,13 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6610,18 +6609,20 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>89</v>
@@ -6636,16 +6637,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6683,17 +6684,19 @@
         <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>89</v>
@@ -6708,13 +6711,13 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6722,20 +6725,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>89</v>
@@ -6750,17 +6751,15 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6809,7 +6808,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>89</v>
@@ -6824,24 +6823,24 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6849,7 +6848,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
@@ -6861,16 +6860,16 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>337</v>
+        <v>103</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>338</v>
+        <v>110</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>339</v>
+        <v>111</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6921,10 +6920,10 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>336</v>
+        <v>106</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>89</v>
@@ -6933,27 +6932,27 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>341</v>
+        <v>107</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6964,7 +6963,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6976,7 +6975,7 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>110</v>
@@ -7021,37 +7020,37 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7062,10 +7061,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7073,10 +7072,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7085,18 +7084,20 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7133,37 +7134,37 @@
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>115</v>
+        <v>353</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7174,10 +7175,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7185,7 +7186,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>89</v>
@@ -7200,16 +7201,16 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7235,13 +7236,13 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7259,7 +7260,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7268,7 +7269,7 @@
         <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>101</v>
@@ -7288,10 +7289,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7314,16 +7315,16 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7349,13 +7350,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7373,7 +7374,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7391,7 +7392,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>176</v>
+        <v>367</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7402,10 +7403,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7428,16 +7429,16 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7487,7 +7488,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7505,7 +7506,7 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>364</v>
+        <v>176</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7516,10 +7517,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7542,16 +7543,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>103</v>
+        <v>374</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>366</v>
+        <v>287</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>367</v>
+        <v>111</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7601,7 +7602,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7616,10 +7617,10 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>176</v>
+        <v>376</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7630,10 +7631,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7656,16 +7657,16 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>287</v>
+        <v>380</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7715,7 +7716,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7730,13 +7731,13 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -7744,10 +7745,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7755,7 +7756,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>89</v>
@@ -7770,17 +7771,15 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7829,7 +7828,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7844,13 +7843,13 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -7858,10 +7857,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7881,16 +7880,16 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7941,7 +7940,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7959,10 +7958,10 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -7970,10 +7969,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7981,7 +7980,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>89</v>
@@ -7996,13 +7995,13 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>388</v>
+        <v>103</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>389</v>
+        <v>104</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>390</v>
+        <v>105</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8053,7 +8052,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8065,16 +8064,16 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>391</v>
+        <v>107</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8082,21 +8081,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8108,15 +8107,17 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8153,31 +8154,31 @@
         <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -8194,21 +8195,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>395</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8217,19 +8218,19 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8267,37 +8268,37 @@
         <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>115</v>
+        <v>353</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8319,7 +8320,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>89</v>
@@ -8334,16 +8335,16 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8369,13 +8370,13 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8393,7 +8394,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8402,7 +8403,7 @@
         <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>101</v>
@@ -8448,16 +8449,16 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8483,13 +8484,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8507,7 +8508,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8525,7 +8526,7 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>176</v>
+        <v>367</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8562,16 +8563,16 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8621,7 +8622,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8639,7 +8640,7 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>364</v>
+        <v>176</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8664,7 +8665,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8673,19 +8674,19 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>103</v>
+        <v>403</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>366</v>
+        <v>287</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>367</v>
+        <v>111</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8735,13 +8736,13 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
@@ -8753,7 +8754,7 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>176</v>
+        <v>404</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -8764,10 +8765,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8790,16 +8791,16 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>404</v>
+        <v>200</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>111</v>
+        <v>407</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>287</v>
+        <v>408</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8825,13 +8826,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -8849,7 +8850,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8864,13 +8865,13 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>78</v>
+        <v>411</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>78</v>
+        <v>413</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -8878,10 +8879,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8904,17 +8905,15 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>407</v>
+        <v>104</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -8939,13 +8938,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>410</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>411</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -8963,28 +8962,28 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>406</v>
+        <v>106</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>413</v>
+        <v>107</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9006,7 +9005,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9018,13 +9017,13 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9063,37 +9062,37 @@
         <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9127,19 +9126,23 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9175,19 +9178,19 @@
         <v>78</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9199,19 +9202,19 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66">
@@ -9227,10 +9230,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9242,19 +9245,19 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>216</v>
+        <v>418</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9303,13 +9306,13 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
@@ -9321,21 +9324,21 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9343,10 +9346,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9355,23 +9358,21 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>103</v>
+        <v>420</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>419</v>
+        <v>287</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9419,13 +9420,13 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>229</v>
+        <v>419</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
@@ -9434,24 +9435,24 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>78</v>
+        <v>421</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>230</v>
+        <v>422</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>78</v>
+        <v>413</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9474,17 +9475,15 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>286</v>
+        <v>425</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9533,7 +9532,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9548,13 +9547,13 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -9562,10 +9561,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9576,7 +9575,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9588,13 +9587,13 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>425</v>
+        <v>103</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>426</v>
+        <v>110</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>427</v>
+        <v>111</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9645,25 +9644,25 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>424</v>
+        <v>106</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>429</v>
+        <v>107</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -9688,7 +9687,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -9700,7 +9699,7 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>110</v>
@@ -9745,37 +9744,37 @@
         <v>78</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -9800,7 +9799,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -9809,18 +9808,20 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>109</v>
+        <v>432</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -9857,51 +9858,51 @@
         <v>78</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>115</v>
+        <v>435</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>78</v>
+        <v>436</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9924,17 +9925,15 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>434</v>
+        <v>110</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N72" t="s" s="2">
-        <v>435</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -9983,7 +9982,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10001,7 +10000,7 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -10012,10 +10011,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10023,7 +10022,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>89</v>
@@ -10038,13 +10037,13 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>382</v>
+        <v>441</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>110</v>
+        <v>442</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>111</v>
+        <v>443</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10095,10 +10094,10 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>89</v>
@@ -10113,7 +10112,7 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -10124,10 +10123,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10138,7 +10137,7 @@
         <v>89</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10147,18 +10146,20 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10195,25 +10196,23 @@
         <v>78</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="AC74" s="2"/>
       <c r="AD74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
@@ -10225,23 +10224,25 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10250,7 +10251,7 @@
         <v>89</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10262,16 +10263,16 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10309,17 +10310,19 @@
         <v>78</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AC75" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10331,13 +10334,13 @@
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>457</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10348,23 +10351,23 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10376,16 +10379,16 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10435,7 +10438,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10447,134 +10450,18 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>459</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="D77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN77" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationstatement-changed.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationstatement-changed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="463">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,8 +282,8 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medstat:If one dosage element is present, it should not have a sequence number. 
-              If more than one dosage element is present, the base entry has the sequence number 1. {(dosage.count() &gt; 1 implies dosage.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medstat:If one dosage element is present, it SHALL NOT have a sequence number. 
+              If more than one dosage element is present, the base entry SHALL have the sequence number 1. {(dosage.count() &gt; 1 implies dosage.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
          and (dosage.count() = 1 implies dosage.single().sequence.exists().not())}split-dosage-unit-must-match-base-dosage:The unit for doseAndRate of different dosages (split dosage) belonging to the same statement/request/dispense must match. {(dosage.count() &gt; 1) implies dosage.doseAndRate.dose.ofType(Quantity).code.union(dosage.doseAndRate.dose.ofType(Range).low.code).union(dosage.doseAndRate.dose.ofType(Range).high.code).union(dosage.doseAndRate.rate.numerator.code).count() = 1}</t>
   </si>
   <si>
@@ -429,7 +429,7 @@
     <t>MedicationStatement.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -461,7 +461,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -479,7 +479,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -523,7 +523,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -760,7 +760,7 @@
     <t>MedicationStatement.modifierExtension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -769,7 +769,7 @@
     <t>MedicationStatement.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
 </t>
   </si>
   <si>
@@ -836,7 +836,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -878,10 +878,10 @@
     <t>MedicationStatement.identifier.value</t>
   </si>
   <si>
-    <t>Identifier value as UUID</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>A UUID expressed as a URN according to RFC 4122 and RFC 3986.</t>
   </si>
   <si>
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
@@ -891,6 +891,10 @@
   </si>
   <si>
     <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+uuid-format:The value SHALL start with 'urn:uuid:' followed by a valid UUID. {matches('^urn:uuid:[0-9a-fA-F]{8}-[0-9a-fA-F]{4}-[0-9a-fA-F]{4}-[0-9a-fA-F]{4}-[0-9a-fA-F]{12}$')}</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -940,7 +944,7 @@
     <t>MedicationStatement.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest|CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1|CarePlan|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1016,7 +1020,7 @@
     <t>A coded concept indicating the reason for the status of the statement.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -1031,7 +1035,7 @@
     <t>A coded concept identifying where the medication included in the MedicationStatement is expected to be consumed or administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-statement-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-statement-category|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
@@ -1151,13 +1155,17 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
   </si>
   <si>
     <t>MedicationStatement.subject.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1196,7 +1204,7 @@
     <t>MedicationStatement.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1287,7 +1295,7 @@
     <t>MedicationStatement.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1310,7 +1318,7 @@
     <t>A coded concept identifying why the medication is being taken.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1340,7 +1348,7 @@
     <t>MedicationStatement.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1)
 </t>
   </si>
   <si>
@@ -1378,7 +1386,7 @@
     <t>MedicationStatement.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1432,7 +1440,7 @@
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Indicates how the medication is/was or should be taken by the patient.</t>
   </si>
   <si>
     <t>The dates included in the dosage on a Medication Statement reflect the dates for a given dose.  For example, "from November 1, 2016 to November 3, 2016, take one tablet daily and from November 4, 2016 to November 7, 2016, take two tablets daily."  It is expected that this specificity may only be populated where the patient brings in their labeled container or where the Medication Statement is derived from a MedicationRequest.</t>
@@ -1442,7 +1450,7 @@
 </t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+    <t>refer dosageInstruction mapping</t>
   </si>
   <si>
     <t>MedicationStatement.dosage:baseEntry</t>
@@ -1456,10 +1464,6 @@
   </si>
   <si>
     <t>Base entry of the dosage instruction</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}</t>
   </si>
   <si>
     <t>MedicationStatement.dosage:additionalEntry</t>
@@ -1788,45 +1792,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.40234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.62890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.92578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.6875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="218.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="187.56640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="196.6875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="124.08984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.25" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.38671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.7421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="140.73046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="120.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5684,27 +5688,27 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>278</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5727,7 +5731,7 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>110</v>
@@ -5784,7 +5788,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5802,21 +5806,21 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5839,16 +5843,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5898,7 +5902,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5916,21 +5920,21 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5953,19 +5957,19 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6014,7 +6018,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6029,10 +6033,10 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6043,10 +6047,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6069,17 +6073,17 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6128,7 +6132,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6143,10 +6147,10 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6157,10 +6161,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6186,13 +6190,13 @@
         <v>153</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6203,7 +6207,7 @@
         <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>78</v>
@@ -6221,10 +6225,10 @@
         <v>203</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6242,7 +6246,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>89</v>
@@ -6257,13 +6261,13 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6271,10 +6275,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6306,7 +6310,7 @@
         <v>111</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6335,10 +6339,10 @@
         <v>143</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6356,7 +6360,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6371,10 +6375,10 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6385,10 +6389,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6447,28 +6451,28 @@
         <v>157</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6486,10 +6490,10 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6497,10 +6501,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6523,16 +6527,16 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6570,17 +6574,17 @@
         <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>89</v>
@@ -6595,13 +6599,13 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6609,13 +6613,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>78</v>
@@ -6637,16 +6641,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6696,7 +6700,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>89</v>
@@ -6711,13 +6715,13 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6725,10 +6729,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6751,13 +6755,13 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6808,7 +6812,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>89</v>
@@ -6823,24 +6827,24 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6949,10 +6953,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7061,10 +7065,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7090,13 +7094,13 @@
         <v>103</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7146,7 +7150,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7155,7 +7159,7 @@
         <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>101</v>
@@ -7175,10 +7179,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7204,13 +7208,13 @@
         <v>125</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7239,10 +7243,10 @@
         <v>137</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7260,7 +7264,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7289,10 +7293,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7315,16 +7319,16 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>237</v>
+        <v>364</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7374,7 +7378,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7392,7 +7396,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7403,10 +7407,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7432,13 +7436,13 @@
         <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7488,7 +7492,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7517,10 +7521,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7543,16 +7547,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7602,7 +7606,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7617,10 +7621,10 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7631,10 +7635,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7657,16 +7661,16 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7716,7 +7720,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7731,13 +7735,13 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -7745,10 +7749,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7771,13 +7775,13 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7828,7 +7832,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7846,10 +7850,10 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -7857,10 +7861,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7883,13 +7887,13 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7940,7 +7944,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7958,10 +7962,10 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -7969,10 +7973,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8081,10 +8085,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8195,10 +8199,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8224,13 +8228,13 @@
         <v>103</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8280,7 +8284,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8289,7 +8293,7 @@
         <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>101</v>
@@ -8309,10 +8313,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8338,13 +8342,13 @@
         <v>125</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8373,10 +8377,10 @@
         <v>137</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8394,7 +8398,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8423,10 +8427,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8449,16 +8453,16 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>237</v>
+        <v>364</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8508,7 +8512,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8526,7 +8530,7 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8537,10 +8541,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8566,13 +8570,13 @@
         <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8622,7 +8626,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8651,10 +8655,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8677,16 +8681,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8736,7 +8740,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8754,7 +8758,7 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -8765,10 +8769,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8794,13 +8798,13 @@
         <v>200</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8829,10 +8833,10 @@
         <v>143</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -8850,7 +8854,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8865,13 +8869,13 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -8879,10 +8883,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8991,10 +8995,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9103,10 +9107,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9219,10 +9223,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9248,7 +9252,7 @@
         <v>103</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>227</v>
@@ -9335,10 +9339,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9361,16 +9365,16 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9420,7 +9424,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9435,13 +9439,13 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9449,10 +9453,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9475,13 +9479,13 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9532,7 +9536,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9547,10 +9551,10 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
@@ -9561,10 +9565,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9673,10 +9677,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9785,10 +9789,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9811,16 +9815,16 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9870,7 +9874,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -9888,7 +9892,7 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -9899,10 +9903,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9925,7 +9929,7 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>110</v>
@@ -9982,7 +9986,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10000,7 +10004,7 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -10011,10 +10015,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10037,13 +10041,13 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10094,7 +10098,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>89</v>
@@ -10112,7 +10116,7 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -10123,10 +10127,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10149,16 +10153,16 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10196,17 +10200,17 @@
         <v>78</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AC74" s="2"/>
       <c r="AD74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10224,7 +10228,7 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
@@ -10235,13 +10239,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>78</v>
@@ -10263,16 +10267,16 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10322,7 +10326,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10334,13 +10338,13 @@
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>457</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10351,13 +10355,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>78</v>
@@ -10379,16 +10383,16 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10438,7 +10442,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10456,7 +10460,7 @@
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
